--- a/test/import.xlsx
+++ b/test/import.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基础数据导入表" sheetId="1" r:id="rId1"/>
-    <sheet name="选项" sheetId="2" r:id="rId2"/>
+    <sheet name="aquatic_region" sheetId="3" r:id="rId2"/>
+    <sheet name="选项" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>类目表</t>
   </si>
@@ -235,6 +236,37 @@
   </si>
   <si>
     <t>类目编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,8 +409,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -489,7 +523,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="85">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -531,6 +565,7 @@
     <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -572,6 +607,7 @@
     <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -903,7 +939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+    <sheetView topLeftCell="C2" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -1100,12 +1136,6 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>选项!C2:C15</xm:f>
-          </x14:formula1>
-          <xm:sqref>I4:I104</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>选项!$D$2:$D$3</xm:f>
           </x14:formula1>
           <xm:sqref>K4:K56</xm:sqref>
@@ -1115,6 +1145,12 @@
             <xm:f>选项!$E$2:$E$3</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J127</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>选项!C2:C15</xm:f>
+          </x14:formula1>
+          <xm:sqref>I4:I104</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1126,6 +1162,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:F15"/>
   <sheetViews>

--- a/test/import.xlsx
+++ b/test/import.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="840" yWindow="740" windowWidth="24260" windowHeight="8180" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="基础数据导入表" sheetId="1" r:id="rId1"/>
+    <sheet name="fish_information" sheetId="1" r:id="rId1"/>
     <sheet name="aquatic_region" sheetId="3" r:id="rId2"/>
     <sheet name="选项" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>类目表</t>
   </si>
@@ -174,6 +174,74 @@
   </si>
   <si>
     <t>中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水库养殖</t>
+  </si>
+  <si>
+    <t>池塘养殖</t>
+  </si>
+  <si>
+    <t>野生捕捞</t>
+  </si>
+  <si>
+    <t>1700829701-1XX-1M-NN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aquatic_category_id</t>
+  </si>
+  <si>
+    <t>中国花鲈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花鲈/鲈鱼/海鲈鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类目编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EP</t>
   </si>
   <si>
     <t>中国</t>
@@ -184,89 +252,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否进口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水库养殖</t>
-  </si>
-  <si>
-    <t>池塘养殖</t>
-  </si>
-  <si>
-    <t>野生捕捞</t>
-  </si>
-  <si>
-    <t>1700829701-1XX-1M-NN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aquatic_category_id</t>
-  </si>
-  <si>
-    <t>中国花鲈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花鲈/鲈鱼/海鲈鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类目编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EP</t>
-  </si>
-  <si>
-    <t>中国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进口</t>
+    <t>FEED</t>
+  </si>
+  <si>
+    <t>是否自产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catch_pattern</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,8 +402,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -523,7 +518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="87">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -566,6 +561,7 @@
     <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -608,6 +604,7 @@
     <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -939,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -964,7 +961,7 @@
   <sheetData>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -985,7 +982,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>42</v>
@@ -1006,12 +1003,12 @@
         <v>22</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -1032,7 +1029,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>13</v>
@@ -1064,7 +1061,7 @@
         <v>1700829701</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -1073,7 +1070,7 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1081,14 +1078,17 @@
       <c r="I4" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1133,12 +1133,12 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>选项!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K4:K56</xm:sqref>
+          <xm:sqref>K5:K56</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -1151,6 +1151,12 @@
             <xm:f>选项!C2:C15</xm:f>
           </x14:formula1>
           <xm:sqref>I4:I104</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>aquatic_region!$A$2:$A$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>K4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1165,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1173,16 +1179,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1190,10 +1196,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1201,10 +1207,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1224,7 +1230,7 @@
   <dimension ref="C1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1240,10 +1246,10 @@
         <v>43</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="3:6">
@@ -1251,13 +1257,13 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="3:6">
@@ -1265,13 +1271,13 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="3:6">
@@ -1279,7 +1285,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="3:6">
